--- a/00_nightly_only/rhub.xlsx
+++ b/00_nightly_only/rhub.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igayen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igayen\Documents\RBI\WorkSpace\R_Packages\Nightly\tidycells_nightly\00_nightly_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="112">
   <si>
     <t>OS</t>
   </si>
@@ -344,6 +344,24 @@
   </si>
   <si>
     <t>read xls (preferred option)</t>
+  </si>
+  <si>
+    <t>tidycells::collate_columns --&gt; tidycells:::similarity_score</t>
+  </si>
+  <si>
+    <t>stringdist</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>tidycells::collate_columns --&gt; tidycells:::similarity_score (Enhance)</t>
+  </si>
+  <si>
+    <t>**Imports**</t>
+  </si>
+  <si>
+    <t>**Suggests**</t>
   </si>
 </sst>
 </file>
@@ -439,12 +457,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,6 +472,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,437 +1086,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="5" t="s">
+    <row r="19" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>90</v>
-      </c>
+    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>98</v>
-      </c>
+    <row r="27" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="2"/>
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E31">
+    <sortCondition ref="B2:B31"/>
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1505,435 +1580,435 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_nightly_only/rhub.xlsx
+++ b/00_nightly_only/rhub.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igayen\Documents\RBI\WorkSpace\R_Packages\Nightly\tidycells_nightly\00_nightly_only\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09ECE01F-F59E-4F55-820F-0331AB6B3891}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="111">
   <si>
     <t>OS</t>
   </si>
@@ -88,12 +89,6 @@
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>R-patched</t>
-  </si>
-  <si>
-    <t>WARNING</t>
-  </si>
-  <si>
     <t>Fedora Linux</t>
   </si>
   <si>
@@ -139,9 +134,6 @@
     <t>PREPERROR</t>
   </si>
   <si>
-    <t>**WARNING**</t>
-  </si>
-  <si>
     <t>**NOTE**</t>
   </si>
   <si>
@@ -362,12 +354,18 @@
   </si>
   <si>
     <t>**Suggests**</t>
+  </si>
+  <si>
+    <t>(R-patched) R version 3.6.0 (2019-04-26)</t>
+  </si>
+  <si>
+    <t>(R-devel, GCC) R Under development (unstable) (2019-08-18 r77026)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,10 +831,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -844,10 +842,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -855,10 +853,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
@@ -866,10 +864,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -877,10 +875,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -888,10 +886,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -899,10 +897,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
@@ -910,160 +908,151 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1073,10 +1062,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1087,24 +1076,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1113,182 +1102,182 @@
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1297,265 +1286,265 @@
     </row>
     <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="69.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="7"/>
@@ -1570,7 +1559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1581,431 +1570,431 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
